--- a/TaskManager.xlsx
+++ b/TaskManager.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="63">
   <si>
     <t>Task</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Procedural</t>
   </si>
   <si>
-    <t>UI</t>
-  </si>
-  <si>
     <t>Health</t>
   </si>
   <si>
@@ -51,21 +48,12 @@
     <t>Time</t>
   </si>
   <si>
-    <t>VFX</t>
-  </si>
-  <si>
-    <t>Particals</t>
-  </si>
-  <si>
     <t>Lighting</t>
   </si>
   <si>
     <t>Materials</t>
   </si>
   <si>
-    <t>Ai</t>
-  </si>
-  <si>
     <t>Searching</t>
   </si>
   <si>
@@ -78,15 +66,9 @@
     <t>Combat</t>
   </si>
   <si>
-    <t>Gravity Controller</t>
-  </si>
-  <si>
     <t>gravity</t>
   </si>
   <si>
-    <t>Combate System</t>
-  </si>
-  <si>
     <t>Weapons</t>
   </si>
   <si>
@@ -99,12 +81,6 @@
     <t>Power ups</t>
   </si>
   <si>
-    <t>rocket launcher</t>
-  </si>
-  <si>
-    <t>Assigned to:</t>
-  </si>
-  <si>
     <t>Juan</t>
   </si>
   <si>
@@ -123,9 +99,6 @@
     <t>Sub Tasks</t>
   </si>
   <si>
-    <t>Est. Time (hours)</t>
-  </si>
-  <si>
     <t>1h</t>
   </si>
   <si>
@@ -151,13 +124,94 @@
   </si>
   <si>
     <t>Pending</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Particles</t>
+  </si>
+  <si>
+    <t>Player Controller</t>
+  </si>
+  <si>
+    <t>.Gun Fire</t>
+  </si>
+  <si>
+    <t>.Blood</t>
+  </si>
+  <si>
+    <t>10m</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>.Lazer flare</t>
+  </si>
+  <si>
+    <t>.Explosions</t>
+  </si>
+  <si>
+    <t>.Smoke</t>
+  </si>
+  <si>
+    <t>.Lazer gun</t>
+  </si>
+  <si>
+    <t>.shotgun</t>
+  </si>
+  <si>
+    <t>.rifle</t>
+  </si>
+  <si>
+    <t>.rocket launcher</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>Player Health</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>UI:</t>
+  </si>
+  <si>
+    <t>VFX:</t>
+  </si>
+  <si>
+    <t>Ai:</t>
+  </si>
+  <si>
+    <t>Gravity Controller:</t>
+  </si>
+  <si>
+    <t>Combate System:</t>
+  </si>
+  <si>
+    <t>Est. Time</t>
+  </si>
+  <si>
+    <t>Assigned to</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,13 +219,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -183,13 +273,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -489,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,349 +602,603 @@
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" t="s">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>18</v>
       </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="C36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>19</v>
       </c>
-      <c r="C20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="C37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="C38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" t="s">
-        <v>44</v>
+      <c r="E38" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/TaskManager.xlsx
+++ b/TaskManager.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="18195" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="18195" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="66">
   <si>
     <t>Task</t>
   </si>
@@ -205,6 +205,15 @@
   </si>
   <si>
     <t>Assigned to</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>in Progress</t>
   </si>
 </sst>
 </file>
@@ -591,7 +600,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,6 +609,7 @@
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -638,7 +648,7 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>37</v>
@@ -654,8 +664,8 @@
       <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
-        <v>35</v>
+      <c r="E4" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>37</v>
@@ -672,7 +682,7 @@
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>38</v>
@@ -800,8 +810,8 @@
       <c r="D14" t="s">
         <v>22</v>
       </c>
-      <c r="E14" t="s">
-        <v>35</v>
+      <c r="E14" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>38</v>
@@ -817,8 +827,8 @@
       <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="E15" t="s">
-        <v>35</v>
+      <c r="E15" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>38</v>
@@ -834,8 +844,8 @@
       <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E16" t="s">
-        <v>35</v>
+      <c r="E16" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>38</v>
@@ -868,8 +878,8 @@
       <c r="D18" t="s">
         <v>22</v>
       </c>
-      <c r="E18" t="s">
-        <v>35</v>
+      <c r="E18" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>38</v>
@@ -925,7 +935,7 @@
         <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>44</v>
@@ -942,7 +952,7 @@
         <v>23</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>44</v>
@@ -959,7 +969,7 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>38</v>
@@ -998,7 +1008,7 @@
         <v>24</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>44</v>
@@ -1032,7 +1042,7 @@
         <v>24</v>
       </c>
       <c r="E29" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>44</v>
@@ -1054,7 +1064,7 @@
         <v>25</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>44</v>
@@ -1104,8 +1114,8 @@
       <c r="D34" t="s">
         <v>25</v>
       </c>
-      <c r="E34" t="s">
-        <v>35</v>
+      <c r="E34" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>44</v>
@@ -1121,8 +1131,8 @@
       <c r="D35" t="s">
         <v>25</v>
       </c>
-      <c r="E35" t="s">
-        <v>35</v>
+      <c r="E35" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>44</v>
@@ -1139,7 +1149,7 @@
         <v>25</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>38</v>
@@ -1156,7 +1166,7 @@
         <v>25</v>
       </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>38</v>
@@ -1190,7 +1200,7 @@
         <v>25</v>
       </c>
       <c r="E39" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>45</v>

--- a/TaskManager.xlsx
+++ b/TaskManager.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="65">
   <si>
     <t>Task</t>
   </si>
@@ -211,9 +211,6 @@
   </si>
   <si>
     <t>In Progress</t>
-  </si>
-  <si>
-    <t>in Progress</t>
   </si>
 </sst>
 </file>
@@ -600,7 +597,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,8 +717,8 @@
       <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="E8" t="s">
-        <v>35</v>
+      <c r="E8" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>44</v>
@@ -934,8 +931,8 @@
       <c r="D22" t="s">
         <v>23</v>
       </c>
-      <c r="E22" t="s">
-        <v>64</v>
+      <c r="E22" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>44</v>
@@ -951,8 +948,8 @@
       <c r="D23" t="s">
         <v>23</v>
       </c>
-      <c r="E23" t="s">
-        <v>64</v>
+      <c r="E23" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>44</v>
@@ -1007,8 +1004,8 @@
       <c r="D27" t="s">
         <v>24</v>
       </c>
-      <c r="E27" t="s">
-        <v>64</v>
+      <c r="E27" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>44</v>
@@ -1025,7 +1022,7 @@
         <v>24</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>55</v>
@@ -1063,8 +1060,8 @@
       <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="E31" t="s">
-        <v>65</v>
+      <c r="E31" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>44</v>
@@ -1080,8 +1077,8 @@
       <c r="D32" t="s">
         <v>25</v>
       </c>
-      <c r="E32" t="s">
-        <v>35</v>
+      <c r="E32" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>38</v>
@@ -1097,8 +1094,8 @@
       <c r="D33" t="s">
         <v>25</v>
       </c>
-      <c r="E33" t="s">
-        <v>35</v>
+      <c r="E33" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>38</v>
@@ -1148,8 +1145,8 @@
       <c r="D36" t="s">
         <v>25</v>
       </c>
-      <c r="E36" t="s">
-        <v>64</v>
+      <c r="E36" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>38</v>
@@ -1165,8 +1162,8 @@
       <c r="D37" t="s">
         <v>25</v>
       </c>
-      <c r="E37" t="s">
-        <v>64</v>
+      <c r="E37" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>38</v>
@@ -1183,7 +1180,7 @@
         <v>25</v>
       </c>
       <c r="E38" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>45</v>
@@ -1199,8 +1196,8 @@
       <c r="D39" t="s">
         <v>25</v>
       </c>
-      <c r="E39" t="s">
-        <v>64</v>
+      <c r="E39" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>45</v>

--- a/TaskManager.xlsx
+++ b/TaskManager.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="64">
   <si>
     <t>Task</t>
   </si>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>Pending</t>
   </si>
   <si>
     <t>Priority</t>
@@ -597,7 +594,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,16 +614,16 @@
         <v>26</v>
       </c>
       <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
         <v>61</v>
-      </c>
-      <c r="D1" t="s">
-        <v>62</v>
       </c>
       <c r="E1" t="s">
         <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -644,11 +641,11 @@
       <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
-        <v>64</v>
+      <c r="E3" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -662,10 +659,10 @@
         <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -679,15 +676,15 @@
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -700,11 +697,11 @@
       <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="s">
-        <v>35</v>
+      <c r="E7" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -718,10 +715,10 @@
         <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -734,11 +731,11 @@
       <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="E9" t="s">
-        <v>35</v>
+      <c r="E9" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -751,11 +748,11 @@
       <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="E10" t="s">
-        <v>35</v>
+      <c r="E10" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -768,21 +765,21 @@
       <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="E11" t="s">
-        <v>35</v>
+      <c r="E11" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -790,96 +787,96 @@
       <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="E13" t="s">
-        <v>35</v>
+      <c r="E13" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
-      <c r="E17" t="s">
-        <v>35</v>
+      <c r="E17" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
         <v>42</v>
-      </c>
-      <c r="C18" t="s">
-        <v>43</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -892,11 +889,11 @@
       <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E19" t="s">
-        <v>35</v>
+      <c r="E19" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -909,16 +906,16 @@
       <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E20" t="s">
-        <v>35</v>
+      <c r="E20" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -932,10 +929,10 @@
         <v>23</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -949,10 +946,10 @@
         <v>23</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -965,11 +962,11 @@
       <c r="D24" t="s">
         <v>23</v>
       </c>
-      <c r="E24" t="s">
-        <v>64</v>
+      <c r="E24" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -983,20 +980,20 @@
         <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
         <v>31</v>
@@ -1005,15 +1002,15 @@
         <v>24</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -1021,11 +1018,11 @@
       <c r="D28" t="s">
         <v>24</v>
       </c>
-      <c r="E28" t="s">
-        <v>64</v>
+      <c r="E28" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1038,16 +1035,16 @@
       <c r="D29" t="s">
         <v>24</v>
       </c>
-      <c r="E29" t="s">
-        <v>64</v>
+      <c r="E29" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1061,15 +1058,15 @@
         <v>25</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -1078,15 +1075,15 @@
         <v>25</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -1095,15 +1092,15 @@
         <v>25</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" t="s">
         <v>31</v>
@@ -1112,15 +1109,15 @@
         <v>25</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -1129,10 +1126,10 @@
         <v>25</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
@@ -1146,10 +1143,10 @@
         <v>25</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -1163,10 +1160,10 @@
         <v>25</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -1179,16 +1176,16 @@
       <c r="D38" t="s">
         <v>25</v>
       </c>
-      <c r="E38" t="s">
-        <v>64</v>
+      <c r="E38" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -1197,10 +1194,10 @@
         <v>25</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
